--- a/Exoplanets/WASP74b/Conversão lat.xlsx
+++ b/Exoplanets/WASP74b/Conversão lat.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Meu Drive\StarsAndExoplanets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Meu Drive\StarsAndExoplanets\Exoplanets\WASP74b\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8DD2854-E2CA-4104-B88B-F19F978B6147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3852BD2-6D13-4A19-86F9-1E8EFFF1A63F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="16845" windowHeight="11325" xr2:uid="{F010B853-5C37-4295-ACFC-BAB654A3AB5A}"/>
+    <workbookView xWindow="2730" yWindow="1095" windowWidth="13785" windowHeight="13275" xr2:uid="{F010B853-5C37-4295-ACFC-BAB654A3AB5A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
   <si>
     <t>lat</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>raioEstrela</t>
+  </si>
+  <si>
+    <t>i=</t>
   </si>
 </sst>
 </file>
@@ -521,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19FB2307-3077-46D2-B810-C2CB7D8C2D53}">
-  <dimension ref="B1:K10"/>
+  <dimension ref="B1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -624,6 +627,19 @@
         <v>81.112365379540904</v>
       </c>
     </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <f>ACOS(((C5*696340000)+(1.6*69911000))/(D2*149597870700))</f>
+        <v>1.3708855091153138</v>
+      </c>
+      <c r="D12">
+        <f>C12*180/PI()</f>
+        <v>78.54595386795063</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Exoplanets/WASP74b/Conversão lat.xlsx
+++ b/Exoplanets/WASP74b/Conversão lat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Meu Drive\StarsAndExoplanets\Exoplanets\WASP74b\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3852BD2-6D13-4A19-86F9-1E8EFFF1A63F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA33F59-439E-4DC0-AB82-47804B67AAFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="1095" windowWidth="13785" windowHeight="13275" xr2:uid="{F010B853-5C37-4295-ACFC-BAB654A3AB5A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{F010B853-5C37-4295-ACFC-BAB654A3AB5A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -527,7 +527,7 @@
   <dimension ref="B1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -562,7 +562,7 @@
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="4">
-        <v>83.3</v>
+        <v>79.81</v>
       </c>
       <c r="C2" s="2">
         <v>1.42</v>
@@ -580,7 +580,7 @@
       </c>
       <c r="K2">
         <f>(ASIN(E2*COS(B2*F2))) / PI() * 180</f>
-        <v>40.843219310124923</v>
+        <v>82.602123895633923</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">

--- a/Exoplanets/WASP74b/Conversão lat.xlsx
+++ b/Exoplanets/WASP74b/Conversão lat.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Meu Drive\StarsAndExoplanets\Exoplanets\WASP74b\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA33F59-439E-4DC0-AB82-47804B67AAFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17CE1BAD-E983-4861-B05D-1720587F0192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{F010B853-5C37-4295-ACFC-BAB654A3AB5A}"/>
   </bookViews>
@@ -527,7 +527,7 @@
   <dimension ref="B1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,7 +537,7 @@
     <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.42578125" customWidth="1"/>
-    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" x14ac:dyDescent="0.25">
